--- a/reports_pdf/brasil/risk-pt/Cases/18-06-2020_brasil_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/18-06-2020_brasil_report_EPG.xlsx
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>298.2768949901678</v>
+        <v>354.1902731799723</v>
       </c>
     </row>
     <row r="117">
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>413.7585004329842</v>
+        <v>457.5171424523687</v>
       </c>
     </row>
     <row r="232">
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1075.99017081058</v>
+        <v>1259.134012985898</v>
       </c>
     </row>
     <row r="347">
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>307.8299849747177</v>
+        <v>355.1895299964519</v>
       </c>
     </row>
     <row r="462">
@@ -10730,7 +10730,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>106.8804354772264</v>
+        <v>114.4355162165711</v>
       </c>
     </row>
     <row r="577">
@@ -12800,7 +12800,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>303.2131844149401</v>
+        <v>334.8247471551795</v>
       </c>
     </row>
     <row r="692">
@@ -14870,7 +14870,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>528.5305031702354</v>
+        <v>600.2537073127226</v>
       </c>
     </row>
     <row r="807">
@@ -16940,7 +16940,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>326.8969420866125</v>
+        <v>383.3394268581598</v>
       </c>
     </row>
     <row r="922">
@@ -19010,7 +19010,7 @@
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>251.9275123740863</v>
+        <v>270.6016392288155</v>
       </c>
     </row>
     <row r="1037">
@@ -21080,7 +21080,7 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>276.2038467812222</v>
+        <v>305.6311598274254</v>
       </c>
     </row>
     <row r="1152">
@@ -23150,7 +23150,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>163.6819903639599</v>
+        <v>214.0721316213566</v>
       </c>
     </row>
     <row r="1267">
@@ -25202,7 +25202,7 @@
         </is>
       </c>
       <c r="D1380" t="n">
-        <v>124.8727564997212</v>
+        <v>133.1901044172737</v>
       </c>
     </row>
     <row r="1381">
@@ -25220,7 +25220,7 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>116.911649721676</v>
+        <v>119.0272190857788</v>
       </c>
     </row>
     <row r="1382">
@@ -29360,7 +29360,7 @@
         </is>
       </c>
       <c r="D1611" t="n">
-        <v>322.8488983829479</v>
+        <v>399.9879222515975</v>
       </c>
     </row>
     <row r="1612">
@@ -31430,7 +31430,7 @@
         </is>
       </c>
       <c r="D1726" t="n">
-        <v>350.7611301452548</v>
+        <v>352.6678420165496</v>
       </c>
     </row>
     <row r="1727">
@@ -33500,7 +33500,7 @@
         </is>
       </c>
       <c r="D1841" t="n">
-        <v>61.37345507887902</v>
+        <v>75.61298622595176</v>
       </c>
     </row>
     <row r="1842">
@@ -37640,7 +37640,7 @@
         </is>
       </c>
       <c r="D2071" t="n">
-        <v>201.0263220401429</v>
+        <v>227.6851143393963</v>
       </c>
     </row>
     <row r="2072">
@@ -39710,7 +39710,7 @@
         </is>
       </c>
       <c r="D2186" t="n">
-        <v>133.2409532624645</v>
+        <v>136.8594174601954</v>
       </c>
     </row>
     <row r="2187">
@@ -41744,7 +41744,7 @@
         </is>
       </c>
       <c r="D2299" t="n">
-        <v>288.2929307333905</v>
+        <v>316.1772247682563</v>
       </c>
     </row>
     <row r="2300">
@@ -41762,7 +41762,7 @@
         </is>
       </c>
       <c r="D2300" t="n">
-        <v>194.5803973929336</v>
+        <v>230.3609867448524</v>
       </c>
     </row>
     <row r="2301">
@@ -41780,7 +41780,7 @@
         </is>
       </c>
       <c r="D2301" t="n">
-        <v>124.0196891411144</v>
+        <v>137.2759056518861</v>
       </c>
     </row>
     <row r="2302">
@@ -43850,7 +43850,7 @@
         </is>
       </c>
       <c r="D2416" t="n">
-        <v>65.81090652362683</v>
+        <v>79.23284152914762</v>
       </c>
     </row>
     <row r="2417">
@@ -45920,7 +45920,7 @@
         </is>
       </c>
       <c r="D2531" t="n">
-        <v>342.13649050938</v>
+        <v>361.1064272235782</v>
       </c>
     </row>
     <row r="2532">
@@ -47972,7 +47972,7 @@
         </is>
       </c>
       <c r="D2645" t="n">
-        <v>223.0155670249738</v>
+        <v>293.7813269044051</v>
       </c>
     </row>
     <row r="2646">
@@ -47990,7 +47990,7 @@
         </is>
       </c>
       <c r="D2646" t="n">
-        <v>283.9474931867115</v>
+        <v>417.4853994204587</v>
       </c>
     </row>
     <row r="2647">
@@ -50060,7 +50060,7 @@
         </is>
       </c>
       <c r="D2761" t="n">
-        <v>66.33569589151926</v>
+        <v>82.98719583896937</v>
       </c>
     </row>
     <row r="2762">
@@ -54200,7 +54200,7 @@
         </is>
       </c>
       <c r="D2991" t="n">
-        <v>767.9180243429759</v>
+        <v>829.0230611401563</v>
       </c>
     </row>
     <row r="2992">
@@ -56252,7 +56252,7 @@
         </is>
       </c>
       <c r="D3105" t="n">
-        <v>135.7753000234015</v>
+        <v>153.9176790659573</v>
       </c>
     </row>
     <row r="3106">
@@ -56270,7 +56270,7 @@
         </is>
       </c>
       <c r="D3106" t="n">
-        <v>145.3046536052099</v>
+        <v>153.4399601413743</v>
       </c>
     </row>
     <row r="3107">
@@ -58304,7 +58304,7 @@
         </is>
       </c>
       <c r="D3219" t="n">
-        <v>177.3823507664635</v>
+        <v>177.7437421712344</v>
       </c>
     </row>
     <row r="3220">
@@ -58322,7 +58322,7 @@
         </is>
       </c>
       <c r="D3220" t="n">
-        <v>182.9755379121259</v>
+        <v>184.1059521128418</v>
       </c>
     </row>
     <row r="3221">
@@ -58340,7 +58340,7 @@
         </is>
       </c>
       <c r="D3221" t="n">
-        <v>168.97847625661</v>
+        <v>184.1827780739681</v>
       </c>
     </row>
   </sheetData>
